--- a/plantillas/consulta/Base_Datos.xlsx
+++ b/plantillas/consulta/Base_Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C65FF1-B3D4-4D99-B384-1F1576274A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A4561D-F0F4-4379-8225-03C2480EDCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DIRECCIÓN EJECUTIVA DE ORGANIZACIÓN ELECTORAL Y GEOESTADÍSTICA</t>
   </si>
@@ -49,9 +49,6 @@
 Opiniones</t>
   </si>
   <si>
-    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO</t>
-  </si>
-  <si>
     <t>Demarcación Territorial</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Clave de la Mesa</t>
   </si>
   <si>
-    <t>FORMATO 1</t>
-  </si>
-  <si>
     <t>SEI: Vía Remota</t>
   </si>
   <si>
@@ -96,6 +90,9 @@
   </si>
   <si>
     <t>SISTEMA DE CÓMPUTO Y VALIDACIONES PARA LAS CONSULTAS CIUDADANAS (SICOVACC)</t>
+  </si>
+  <si>
+    <t>titulo</t>
   </si>
 </sst>
 </file>
@@ -211,9 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -226,6 +220,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,8 +238,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -568,10 +565,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,7 +611,7 @@
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -629,170 +626,174 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="M7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="1"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J9" s="1"/>
+      <c r="J9" s="4"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J10" s="4"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="J11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="L11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="15" t="s">
+      <c r="M11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="8" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A5:M5"/>
     <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
